--- a/src/resources/omnnamahshivaay.xlsx
+++ b/src/resources/omnnamahshivaay.xlsx
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -481,9 +481,669 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>FOX Sports Cincinnati</v>
+      </c>
+      <c r="B3" t="str">
+        <v>FOX Sports is the global innovator in sports production and we are looking to maintain our creative excellence in the digital world with the consumer products that we create for our customers.  At FOX Cincinnati, a development studio within FOX Corporation, we develop mobile apps, websites, backend platforms, video players and machine learning solutions. We create the digital products that allow you to enjoy the NFL, MLB, NASCAR, UFC, NBA, NHL, USFL, WWE, Soccer, college basketball, college football and more.  Our team of 50-plus strong software engineers, test engineers, graphic designers, scrum masters and product managers are passionate about software, sports and games. We develop in the newest technologies and follow the latest software development principles. Although we're in a brand new office that opened in March of 2022, our Blue Ash, Ohio start-up culture remains (t-shirts, headphones, shuffleboard, etc.).  FOX Cincinnati is seeking a talented, self-motivated individual looking for a software developer internship. If you have a passion for software development, an interest in games, sports or entertainment, then we could be a great fit. We provide fantastic opportunities to learn all aspects of software development. Prove yourself and more challenging opportunities will be waiting.  Our goal is to provide students real-world experience on one of our many development teams. Work with a mentor, build features to be used by millions of sports fans and learn the full software development cycle. Challenge yourself and increase your responsibilities each semester with an option to work part-time while in school.  Requirements: Enrolled in a Computer Science, Computer Engineering or similar college major Interested in software development Desire to learn a variety of technologies, tools and systems Possesses a creative mindset Strong desire to improve skills and increase responsibility and productivity  Responsibilities: Develop new features consisting of easy-to-medium difficulty levels Perform iterative testing and improvement cycles for optimal code and user experience Maintain and improve existing products incorporating analysis and feedback Participate in product brainstorming sessions Stay current on software development practices and the technology industry Stay current on sports and entertainment products, topics and trends Other duties and responsibilities, as assigned  What we're really looking for is someone who... Contributes clean, optimized, documented and well-tested code Takes great pride in his/her work and is excited to show it off to friends Analyzes a problem and thinks through potential solutions before writing a line of code Is always looking to improve, learn from and share knowledge with his/her peers Thinks through project scope and provides accurate time estimates Consistently meets deadlines, anticipates issues and raises concerns early Solves problems without being asked Enjoys working with others Is flexible and open to feedback Enjoys writing software, talking about software and using software on all platforms and devices</v>
+      </c>
+      <c r="C3" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/FOX Sports Cincinnati/FOX Sports Cincinnati-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D3" t="str">
+        <v>1732254826001</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>FOX Sports Cincinnati</v>
+      </c>
+      <c r="B4" t="str">
+        <v>FOX Sports is the global innovator in sports production and we are looking to maintain our creative excellence in the digital world with the consumer products that we create for our customers.  At FOX Cincinnati, a development studio within FOX Corporation, we develop mobile apps, websites, backend platforms, video players and machine learning solutions. We create the digital products that allow you to enjoy the NFL, MLB, NASCAR, UFC, NBA, NHL, USFL, WWE, Soccer, college basketball, college football and more.  Our team of 50-plus strong software engineers, test engineers, graphic designers, scrum masters and product managers are passionate about software, sports and games. We develop in the newest technologies and follow the latest software development principles. Although we're in a brand new office that opened in March of 2022, our Blue Ash, Ohio start-up culture remains (t-shirts, headphones, shuffleboard, etc.).  FOX Cincinnati is seeking a talented, self-motivated individual looking for a software developer internship. If you have a passion for software development, an interest in games, sports or entertainment, then we could be a great fit. We provide fantastic opportunities to learn all aspects of software development. Prove yourself and more challenging opportunities will be waiting.  Our goal is to provide students real-world experience on one of our many development teams. Work with a mentor, build features to be used by millions of sports fans and learn the full software development cycle. Challenge yourself and increase your responsibilities each semester with an option to work part-time while in school.  Requirements: Enrolled in a Computer Science, Computer Engineering or similar college major Interested in software development Desire to learn a variety of technologies, tools and systems Possesses a creative mindset Strong desire to improve skills and increase responsibility and productivity  Responsibilities: Develop new features consisting of easy-to-medium difficulty levels Perform iterative testing and improvement cycles for optimal code and user experience Maintain and improve existing products incorporating analysis and feedback Participate in product brainstorming sessions Stay current on software development practices and the technology industry Stay current on sports and entertainment products, topics and trends Other duties and responsibilities, as assigned  What we're really looking for is someone who... Contributes clean, optimized, documented and well-tested code Takes great pride in his/her work and is excited to show it off to friends Analyzes a problem and thinks through potential solutions before writing a line of code Is always looking to improve, learn from and share knowledge with his/her peers Thinks through project scope and provides accurate time estimates Consistently meets deadlines, anticipates issues and raises concerns early Solves problems without being asked Enjoys working with others Is flexible and open to feedback Enjoys writing software, talking about software and using software on all platforms and devices</v>
+      </c>
+      <c r="C4" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/FOX Sports Cincinnati/FOX Sports Cincinnati-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1732255156802</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Riot Platforms</v>
+      </c>
+      <c r="B5" t="str">
+        <v>About Riot Platforms   Riot is a Bitcoin mining and digital infrastructure company focused on a vertically integrated strategy. The Company has Bitcoin mining data center operations in central Texas and electrical switchgear engineering and fabrication operations in Denver, Colorado.  Riot Rookie Internship Program    At Riot, we are passionate about Bitcoin and educating others. We want our interns to find value in the work they accomplish with us. Our goal is to increase student exposure to Bitcoin and provide the opportunity for you to find creative solutions to real-world problems. We believe that this internship opportunity will uniquely position you to do just that and gain valuable industry experience in a publicly traded company.  About You   You are interested in Bitcoin and being involved in the sector. You are creative, innovative, and strive to improve organizational efficiency. You have strong communication skills and can multi-task. You identify problems and solve them. You take initiative, you are self-sufficient, and you are detail focused.  About the role  We are looking to add a Software Engineering Intern to our Austin office. This is a summer internship, expected to last 10-weeks, with an average of 40-hours per week. It is our goal to provide a collaborative work environment that allows our interns to take ownership of their projects, experiment, and ask questions.  *Riot does not provide work related sponsorship for this role now or in the future. *   Responsibilities  The Software Engineering Internship at Riot pushes Software Engineers to tackle projects from start to finish with the help of Senior Developers along the way. You will be tasked with your own project(s) and be given the tools to succeed.   Project activities will involve the following:   Communicate with Leaders across the organization to gather project requirements.  Collaborating with developers and engineers to design, build, and maintain applications.  Assisting in building applications for various platforms using common frameworks (.Net Core).  Build integrations to communicate with third party software or hardware. Requirements  Ability to report to our Austin office at least 4-days a week for the duration of the internship.  Exposure to one or more object-oriented languages (C#, Java, JavaScript, Python).  Exposure to Agile Teams and foundational understanding of the Software Development Life Cycle.  Experience working with databases. Education and Experience  Graduate or Undergraduate student in Computer Science or Engineering. GPA of 3.0 or higher. Junior or Senior preferred (open to all levels). Benefits    Competitive pay, employer perks, and flexible scheduling. Apply classroom knowledge to real-world problems, gaining hands-on experience in various Software Engineering tasks. Learn about the exciting world of Bitcoin from industry leaders. Gain exposure to presenting to management and C-Suite levels within the company. Build lasting relationships with mentors and leaders. Upon successful completion of internship, a strong letter of recommendation.</v>
+      </c>
+      <c r="C5" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Riot Platforms/Riot Platforms-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1732256942107</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Cozii Technologies</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Software Developer, Intern  Job Description   We are seeking intern with the drive for success, passion for technology and Real Estate and a heart for making a difference to join our diverse and dynamic team to revolutionize the property management industry.  Key Responsibilities:  As a Software Developer your main role will be to work collaboratively with a team of product developers to solve problems, upgrade existing systems and improve efficiency for the overall success of medium-size software development projects. You will use your coding and creative thinking skills to impact the development and delivery of technological solutions for businesses. Your range of responsibilities will include writing, developing, testing, code review and knowledge sharing in order to optimize existing applications and fixing defects.     Requirements:  College/Bachelor/Master degree in Computer Engineering, Computer Science, or fields 3+ years of experience with modern Web technologies and frameworks You're an expert at writing and efficiently debugging JavaScript in Node and browser environments You have an incredible design intuition coupled with an obsession for the customer and their experience You're an advocate of high standards for code quality and code review processes You have a growth mindset coupled with a fascination for technology at scale   Technologies we use:  Basic understanding of JavaScript Object-Oriented Programming Typescript (bonus) Basic react JS with concepts / Basic Vue JS with concepts / Basic Angular JS with concepts Next JS (react) / Nuxt JS (vue) Formik / React hook form HTML5 and CSS (Cascading Style Sheets) Material UI/ Ant Design / Semantic UI (optional) Redux Toolkit/ Mobx / Zustand / Akito / RxJS RTK Query / React query / SWR (optional) Next auth Sass Jest / Cypress (optional)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Cozii Technologies/Cozii Technologies-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1732257991064</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>FireSeeds</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ALThis position is an incredible opportunity to gain valuable experience with an up-and-coming SaaS startup in Birmingham! At Wildsparq you will be in a culture that values integrity, excellence, and relationships. Come work in our dog-friendly Birmingham office with a tight-knit team to help build software that makes a difference and helps drive new business. We will prepare you for the next step in life, whether at Wildsparq or somewhere else.  KEY RESPONSIBILITIES &amp; WHAT YOU’LL LEARN  Participate in the full software development life cycle, including feature development, design, problem-solving, and testing Help build a cloud-based Leadership Development Platform Work with programming languages and technologies such as Angular, JavaScript, C#, Go, and SQL Interact with all parts of the business, including Sales, Client Success, and the Executive Team Access the Wildsparq Leader Development Platform and participate as part of the team Be a part of a team that is invested in your growth and development REQUIREMENTS  Ability to read, write, and understand at least one object-oriented programming language Strong Understanding of OOP principles Know how to debug applications to fix bugs Passion for engaging with people and serving customers Experience working in a team environment PREFERRED QUALIFICATIONS  An understanding of git and how to use it to collaborate with other developers Experience writing and/or consuming REST APIs Experience with C#, JavaScript, or SQL Experience writing automated tests Experience contributing to an established code base Experience working with project management software such as Jira or Trello Experience with cloud environments This job will be onsite in Birmingham, AL.</v>
+      </c>
+      <c r="C7" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/FireSeeds/FireSeeds-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1735889710559</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Protiviti</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Degree: Bachelor’s or Master’s degree in a relevant discipline (e.g., Computer Science, Data Science, Decision Science, Engineering, Information Systems, Information Technology, Internet of Things, Applied Math, Machine Learning, Quantum, or other technology majors)   Visa Status: All applicants applying for U.S. job openings need authorization to work in the United States for Protiviti without sponsorship now or in the future Graduation Status: Must be within one year of final graduation at the time of internship Technical Skills Desired of an entry-level Technology Consulting Consultant: Advanced verbal and written communication skills. Ability to apply critical thinking skills and innovation to client engagements across various industries Specific skills below prepare you better for specific Technology Consulting segments: Demonstrated ability and desire to research and analyze pertinent client, industry, and technical matters Basic experience with any of the major Business Intelligence reporting tools, such as Power BI, BusinessObjects, Hyperion, Cognos, Microstrategy, Tableau, QlikView, or SSRS Entry-level experience with domain management strategies, network segmentation, firewalls, and middleware tools Introductory knowledge of internal control frameworks or knowledge of IT controls, with particular experience to understand IT and Business risks related to SAP Basic experience working within a Microsoft SQL Server, MySQL, Oracle, TeraData, or other major database management systems Familiarity of technology project risks and strategies for managing and mitigating Programming skills such as Python, Java, JavaScript, etc. are preferred Basic Knowledge of security-related topics such as authentication, entitlements, identity management, data protection, data leakage prevention, validation checking, encryption, hashing, principle of least privilege, software attack methods, and data storage Fundamental knowledge of process reengineering and methodologies, including flowcharting and technical design documentation Ability to convey complex technical security concepts to technical and non-technical audiences</v>
+      </c>
+      <c r="C8" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Protiviti/Protiviti-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1735943536751</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Cambridge Mobile Telematics</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Cambridge Mobile Telematics (CMT) is the world’s largest telematics service provider. Its mission is to make the world’s roads and drivers safer. The company’s AI-driven platform, DriveWell® Fusion, gathers sensor data from millions of IoT devices — including smartphones, proprietary Tags, connected vehicles, dashcams, and third-party devices — and fuses them with contextual data to create a unified view of vehicle and driver behavior. Auto insurers, automakers, commercial mobility companies, and the public sector use insights from CMT’s platform to power risk assessment, safety, claims, and driver improvement programs. Headquartered in Cambridge, MA, with offices in Budapest, Chennai, Seattle, Tokyo, and Zagreb, CMT measures and protects tens of millions of drivers across the world every day.  Join the Platform Applications team at CMT and play a key role in ensuring seamless end-to-end integration of our Fusion Platform. As a Software Engineering Intern, you’ll have the opportunity to work on innovative projects that enhance the reliability and efficiency of critical platform services, empower internal teams, and deliver exceptional experiences to external clients. You’ll support cross-platform initiatives that make the Fusion Platform more flexible, scalable, and developer-friendly. If you’re passionate about solving complex challenges and building systems that drive innovation and reliability, this internship offers an exciting opportunity to make a meaningful impact.  CMT is looking for a collaborative, customer-committed, and creative Software Engineering Intern who wants to join us in making roads safer by making drivers better!  Responsibilities:  Write and maintain high-quality, efficient, and well-documented code to support team projects and initiatives Investigate and troubleshoot issues across different systems and platforms, identifying root causes and proposing solutions Participate actively in team meetings, including daily scrums, sprint planning, and retrospective sessions Provide timely updates on progress, blockers, and completed tasks to ensure smooth collaboration and alignment with team goals Test code thoroughly in test environments to validate functionality, performance, and reliability Monitor shared test environments and production systems to ensure stability and identify issues promptly when making changes Collaborate with team members to learn best practices, share knowledge, and contribute to the team’s success Take ownership of assigned tasks and follow through to completion, demonstrating initiative and accountability Complete any additional tasks as they arise Qualifications:  Currently enrolled in a Bachelor’s or Master’s degree program in Computer Science, Electrical Engineering, Mathematics, or a related STEM field Ability to work at least two days per week in the Cambridge, MA office Strong desire to learn and grow in a collaborative environment Proficient in at least one programming language, such as Python, Java, or similar Conceptual knowledge or experience in one or more of the following areas: Developing applications for cloud, web, or mobile platforms Debugging and troubleshooting complex systems AI, Machine Learning, or Data Science Strong communication skills, with the ability to articulate ideas clearly and effectively. Self-motivated and able to work independently on assigned tasks Compensation and Benefits:  Fair and competitive hourly rate based on education level Flexible scheduling options depending on role and responsibilities Additional Perks:  Feel great working to improve road safety around the world! Join one of our many employee resource groups including Black, AAPI, LGBTQIA+, Women, Book Club and Health &amp; Wellness CMT will do all that is possible to support our employees and create a positive and inclusive work environment for all! Commitment to Diversity and Inclusion:  At CMT, we believe the best ideas come from a mix of backgrounds and perspectives.   We are an equal-opportunity employer committed to creating a workplace and culture where everyone feels valued, respected, and empowered to bring their unique talents and perspectives. Diversity is essential to our success, and we actively seek candidates from all backgrounds to join our growing team.   We do not discriminate based on race, religion, color, national origin, gender, sexual orientation, age, marital status, veteran status or disability state. “CMT is headquartered in Cambridge, MA. “To learn more, visit www.cmtelematics.com and follow us on X @cmtelematics.”</v>
+      </c>
+      <c r="C9" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Cambridge Mobile Telematics/Cambridge Mobile Telematics-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1735949894081</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ST Engineering iDirect</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ST Engineering iDirect is a global leader in satellite communications (satcom) providing technology and solutions that enable its customers to expand their business, differentiate their services and optimize their satcom networks. Our business provides innovation focused on solving satellite’s most critical economic and technology challenges and expands a shared commitment to shaping the future of how the world connects.  With your talent and energy paired with our vision and technical leadership, the most fulfilling work of your career is waiting for you at ST Engineering iDirect…the sky is truly the limit!  ST Engineering iDirect continues to fuel its engineering growth and seeks an innovative, creative Software Engineering Intern who is ready for the challenges, responsibilities, and the learning experiences that come with working in a high-energy, fast-paced environment. iDirect is dedicated to providing next generation solutions for broadband IP networking via satellite networks. As the leading innovators in this new space, our diverse and talented team of Internet, satellite and telecommunications professionals continue to break new ground and create significant opportunities for the network operators, service providers resellers, and the corporate networking professionals.   ST Engineering iDirect currently his looking for multiple Interns to support and work within the Next Generation Platform Development Team. The selected candidates will work closely with the team of highly skilled Engineers in a collaborative Agile environment. High team participation and cooperation is expected. The selected candidates will design, implement and test software solutions for both automated testing and various applications. Day to day direction will come from Team Mentors and Senior Engineers assigned to specific projects.  Key Responsibilities:  Collaborate with other engineers to integrate various software components and participate in code reviews, debugging and troubleshooting Debug and troubleshoot software issues. Create and maintain documentation for software systems and features, ensuring clarity and consistency. Qualifications and Skills:  Proficiency in at least one programming languages such as Java, C++, or Python. Currently pursuing an Undergraduate/Graduate/Master/PhD in Software Development, Computer Science, Computer Engineering, or a related technical discipline Familiarity with software development methodologies and Agile. Understanding of data structures, algorithms, and software design principles. Strong problem-solving skills and the ability to work independently as well as in a team environment. Excellent communication skills, both written and verbal. Passion for technology and a strong desire to learn and grow in the field of software engineering. Preferred Qualifications:  Graduating December 2025 onwards with the intent to return to degree program after the completion of the internship. Able to commit to working for 12-15 weeks during Summer 2025 Experience with large-scale distributed systems and cloud technologies. Familiarity with content recommendation systems or machine learning algorithms. Previous internship or project experience in software development. Experience with version control systems, such as Git. Interest in Telecommunications, Satellite Communications and Networking</v>
+      </c>
+      <c r="C10" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ST Engineering iDirect/ST Engineering iDirect-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D10" t="str">
+        <v>1735950444839</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Evolv</v>
+      </c>
+      <c r="B11" t="str">
+        <v>The Work: What type of work will you be doing? What assignments, requirements, or skills will you be performing on a regular basis? Machine Vision Pipelines: Ability to set up, execute, and evaluate the performance of various machine vision workflows. 3D Animation: Familiarity with 3D animation concepts and tools. User Experience (UX) Development: Skills in designing and implementing intuitive user interfaces. Technical Knowledge Basic web development skills, including knowledge of HTML, DOM, CSS, and JavaScript. Familiarity with frameworks and tools such as React, Node.js, REST APIs, and WebSocket. Soft Skills Must be self-motivated and capable of working independently with minimal supervision. Strong problem-solving skills and a results-driven mindset. Ability to effectively adapt to challenges and focus on achieving desired outcomes. What is the leadership like for this role? What is the structure and culture of the team? You will be joining a new product development team with 5 other people. Team culture is to move fast, break things and not worry about how things were done in the past. Leadership sets the specific deliverables and performance objectives while giving team members latitude to synthesize, implement and benchmark various solutions.  Where is the role located? The location of this role is based in Waltham, MA with some flexibility in being remote some days. We require our interns to be onsite at a minimum 3 days of the work week. We do not provide relocation assistance at this time.  What is the pay range? The hourly pay range for this internship position is $20-$27 an hour. Our pay ranges are determined by your current level of education.</v>
+      </c>
+      <c r="C11" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Evolv/Evolv-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1735952379793</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>BMO U.S.</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Foundational level of proficiency:  Creative thinking. Building and managing relationships. Emotional agility. Quality Assurance and Testing. Cloud computing. Microservices. Technology Business Requirements Definition, Analysis and Mapping. Adaptability. Learning Agility.   Intermediate level of proficiency:  Programming. Applications Integration. Test Driven Development. System Development Lifecycle. Troubleshooting. System and Technology Integration. Verbal &amp; written communication skills. Collaboration &amp; team skills. Analytical and problem solving skills. Data driven decision making. As a full-time employee, we would require 4-6 years of experience, however as part of the BMO campus program, we are looking for motivated individuals with a strong desire to learn.  Technical proficiency gained through education and/or business experience.</v>
+      </c>
+      <c r="C12" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/BMO U.S./BMO U.S.-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1735953929180</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>ASU</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Job Description: This position will develop both a front-end and a back-end for an AI system to process video streams on the AWS cloud. The AI system is an object detection system based on YOLO models. Potential use cases include satellite and drone image processing.  Essential Duties:  The job will involve coding and testing a complete system on AWS working with other members of the team.  Desired Qualifications:  (for MERN/MEAN Stack Developer):                    Web stack:  Angular (for MEAN) or React (for MERN) Responsive design and cross-browser compatibility Node.js and Express.js RESTful API development MongoDB (NoSQL database) DevOps and Containerization:  Docker (containerization) Kubernetes (orchestration) CI/CD pipelines (Jenkins, GitLab CI) Version Control:  Git, GitHub  Cloud Platforms  Basic knowledge of AWS   Minor Computer Vision/Deep Learning Experience  Basic understanding of Python and OpenCV  Familiarity with TensorFlow or PyTorch  Experience with integrating simple models into web applications  Working Environment:  This is primarily an on-campus job with some coding done offsite. Minimum Qualifications:  Duties are technical and complex and involve a high degree of responsibility and judgment. May supervise or direct activities of other student employees. A significant amount of specialized training or experience is required.</v>
+      </c>
+      <c r="C13" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ASU/ASU-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1735962767828</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>ASU TECHNOLOGY ASSISTANT</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Job Description: The Technology Assistant will assist in providing technical hardware/software support such as configuration, installation, and troubleshooting. Event monitoring of ASU athletic events will also be performed by the Technology Assistant. Federal Work Study participants are welcomed to apply, and continued employment is not contingent on your award balance. Employees must adhere to NCAA and conference rules and regulations, as well as the policies and procedures of the department, the university and the Arizona Board of Regents.  Essential Duties:  Work with coworkers to perform tier 1 help desk service and log active requests.  Assist with the support and troubleshooting of.          Desktops.         Laptops.         Printers.         Mobile Devices.  Assist with configuration and distribution of new desktops and laptop computers.  Assist with small application development projects and enhancements to existing applications.  Organize and maintain IT assets and inventory.  Desired Qualifications:  Familiarity with computing, networking, and mobile devices.  Able to install, maintain, and troubleshoot applications on both Windows and Apple devices.  Ability to work onsite and remotely.  Must be able to work a minimum of 1- hours per week and no more than an average of 25 hours per week.  Flexible schedule available to accommodate classes.  Ability to work select ASU athletic events after hours or on weekends.  Excellent communication skills in-person, over email, and over video or phone call.  Detail oriented and organized.  Structured problem solving skills.  Skills within the Office 365 Environment especially Power tools such as Power Automate, Power Apps, and PowerBI.  Working knowledge of Windows 10.  Hands-on experience with MacOS.  Working Environment:  Activities are performed in an environmentally controlled facility and/or outdoors possibly in extreme weather conditions.  Subject to extended periods of sitting, standing, and walking moderate distances.  Frequent bending, reaching, lifting, pushing and pulling up to 25 pounds.  Schedules may include occasional nights, weekends, and holidays.  Occasionally exposed to moving mechanical parts.  Occasional driving needed within the Phoenix area to perform errands.  Valid driver’s license to be shown at the time of interview.  Defensive driving training to be completed prior to using State vehicle.  Minimum Qualifications:  Duties are technical and complex and involve a high degree of responsibility and judgment. May supervise or direct activities of other student employees. A significant amount of specialized training or experience is required.</v>
+      </c>
+      <c r="C14" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ASU TECHNOLOGY ASSISTANT/ASU TECHNOLOGY ASSISTANT-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1736201077338</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>ASU PROJECT ASSISTANT</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Job Description: The Project Assistant will perform duties related to preparing archaeological publications, governmental reports, and permit requests submitted to governmental agencies to conduct excavations and museum collections studies. They will also participate in organizing field data of different kinds for permanent archiving (i.e. for tDAR).  Essential Duties:  Format manuscripts and proposals in accordance with publisher or governmental guidelines. Create and modify tables, figures, maps, and photographs; ensure all citations adhere to the required format. Engage with databases, scan field drawings, and format archaeological data of different kinds for archiving. Create PDFs, data entry in Excel, organize photo files into folders, and other organization tasks. Desired Qualifications:  Familiarity with academic archaeological literature. Proficiency in Microsoft Office applications, including Word, Excel, and PowerPoint. Willingness to learn or familiarity with Adobe Photoshop, Adobe Illustrator, and Google Earth. Strong attention to detail, organizational skills, and the ability to follow instructions, meet deadlines, and consistently apply protocols. Ability to read and understand documents in Spanish is preferred but not required. Experience with GIS is preferred but not required. Working Environment:  The Project Assistant will work on-site in an open lab environment on the Tempe campus, collaborating with other employees and volunteers. This position does not offer remote or hybrid work options. Workstations include both sitting and standing desks. Minimum Qualifications:  Duties are varied and less routine and involve a moderate degree of responsibility and judgment. May lead or coordinate activities of other student employees. Requires previous knowledge or skill and/or equivalent experience or training. Driving Requirement:  Driving is not required for this position. Location:  Campus: Tempe</v>
+      </c>
+      <c r="C15" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ASU PROJECT ASSISTANT/ASU PROJECT ASSISTANT-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1736217216562</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Arizona State University</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Job Description: The Project Assistant will perform duties related to preparing archaeological publications, governmental reports, and permit requests submitted to governmental agencies to conduct excavations and museum collections studies. They will also participate in organizing field data of different kinds for permanent archiving (i.e. for tDAR).  Essential Duties:  Format manuscripts and proposals in accordance with publisher or governmental guidelines. Create and modify tables, figures, maps, and photographs; ensure all citations adhere to the required format. Engage with databases, scan field drawings, and format archaeological data of different kinds for archiving. Create PDFs, data entry in Excel, organize photo files into folders, and other organization tasks. Desired Qualifications:  Familiarity with academic archaeological literature. Proficiency in Microsoft Office applications, including Word, Excel, and PowerPoint. Willingness to learn or familiarity with Adobe Photoshop, Adobe Illustrator, and Google Earth. Strong attention to detail, organizational skills, and the ability to follow instructions, meet deadlines, and consistently apply protocols. Ability to read and understand documents in Spanish is preferred but not required. Experience with GIS is preferred but not required. Working Environment:  The Project Assistant will work on-site in an open lab environment on the Tempe campus, collaborating with other employees and volunteers. This position does not offer remote or hybrid work options. Workstations include both sitting and standing desks. Minimum Qualifications:  Duties are varied and less routine and involve a moderate degree of responsibility and judgment. May lead or coordinate activities of other student employees. Requires previous knowledge or skill and/or equivalent experience or training. Driving Requirement:  Driving is not required for this position. Location:  Campus: Tempe Funding:  No Federal Funding</v>
+      </c>
+      <c r="C16" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Arizona State University/Arizona State University-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1736293347187</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Arizona State University</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Job Description: The Technology Assistant will assist in providing technical hardware/software support such as configuration, installation, and troubleshooting. Event monitoring of ASU athletic events will also be performed by the Technology Assistant. Federal Work Study participants are welcomed to apply, and continued employment is not contingent on your award balance. Employees must adhere to NCAA and conference rules and regulations, as well as the policies and procedures of the department, the university and the Arizona Board of Regents.  Essential Duties:  Work with coworkers to perform tier 1 help desk service and log active requests.  Assist with the support and troubleshooting of.          Desktops.         Laptops.         Printers.         Mobile Devices.  Assist with configuration and distribution of new desktops and laptop computers.  Assist with small application development projects and enhancements to existing applications.  Organize and maintain IT assets and inventory.  Desired Qualifications:  Familiarity with computing, networking, and mobile devices.  Able to install, maintain, and troubleshoot applications on both Windows and Apple devices.  Ability to work onsite and remotely.  Must be able to work a minimum of 1- hours per week and no more than an average of 25 hours per week.  Flexible schedule available to accommodate classes.  Ability to work select ASU athletic events after hours or on weekends.  Excellent communication skills in-person, over email, and over video or phone call.  Detail oriented and organized.  Structured problem solving skills.  Skills within the Office 365 Environment especially Power tools such as Power Automate, Power Apps, and PowerBI.  Working knowledge of Windows 10.  Hands-on experience with MacOS.  Working Environment:  Activities are performed in an environmentally controlled facility and/or outdoors possibly in extreme weather conditions.  Subject to extended periods of sitting, standing, and walking moderate distances.  Frequent bending, reaching, lifting, pushing and pulling up to 25 pounds.  Schedules may include occasional nights, weekends, and holidays.  Occasionally exposed to moving mechanical parts.  Occasional driving needed within the Phoenix area to perform errands.  Valid driver’s license to be shown at the time of interview.  Defensive driving training to be completed prior to using State vehicle.</v>
+      </c>
+      <c r="C17" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Arizona State University/Arizona State University-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1736293505350</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Tanium</v>
+      </c>
+      <c r="B18" t="str">
+        <v>The Basics  At Tanium, Software Engineering Interns have the opportunity to gain valuable, real-world experience in building B2B security focused applications. Assigned a senior engineer mentor and a peer intern buddy, you’ll work with our team directly on new features for the next release of Tanium’s platform. During your internship you’ll build features that are delivered to Tanium’s customers, and get feedback on how your features are received. Don't miss out on the opportunity to network with your peer interns and build a community with Tanium’s diverse group of developers!  Examples Of Prior Intern Projects Include  A visualization tool for Tanium’s privileges and roles  Question prediction for Tanium’s natural language parser  A node.js module for presenting application health   This is a hybrid position based out of Tanium's Durham, NC office.  The hourly rate for this internship is $55 per hour. This hourly rate is an estimate for what Tanium will pay an intern. The actual rate offered may be adjusted based on a variety of factors, including but not limited to, education, skills, training, and experience. In addition to an hourly rate, interns will be eligible for a housing stipend, 401k matching, and a monthly allowance for communications reimbursement.  What You'll Do  Be assigned to either a frontend or backend team, depending on your ranked preference / our available projects.  Experience first–hand engineering in a software security company – work in the real world on frameworks and new features for our product.  Meet regularly with your 1-1 mentor.  Produce a unique deliverable to put on your resume.  Show off what you’ve built to our entire team at the end of your internship – get great exposure to engineering leadership!  Participate in intern events and network with our wider internship cohort of 70+ interns.   We Are Looking For Someone Who Is  Authorized to work in the U.S. now and in the future Available to work full-time from June 9, 2025 to August 15, 2025 A currently enrolled Bachelor's degree candidate, in computer science or a related degree program. GPA of 3.5 or above REQUIRED Graduating Spring 2026 or Fall 2025  Experienced in creating and finishing software development projects in backend and/or frontend languages Excited and driven to learn new technical skills Passionate about technology, software, and figuring out how things work A great communicator and can collaborate with a team as well as work independently   Past internship helpful but not required.  About Tanium  Tanium delivers the industry's only true real-time cloud-based endpoint management and security offering. Its platform is real-time, seamless, and autonomous, allowing security-conscious organizations to break down silos between IT and Security operations that results in reduced complexity, cost, and risk. Securing more than 32M endpoints around the world, Tanium's customers include Fortune 100 organizations, top US retailers, top US commercial banks, and branches of the U.S. Military. It also partners with the world's biggest technology companies, system integrators, and managed service providers to help customers realize the full potential of their IT investments. Tanium has been named to the Forbes Cloud 100 list for nine consecutive years and ranks on the Fortune 100 Best Companies to Work For. For more information on The Power of Certainty™, visit www.tanium.com and follow us on LinkedIn and X.  On a mission. Together.   At Tanium, we are stewards of a culture that emphasizes the importance of collaboration, respect, and diversity. In our pursuit of revolutionizing the way some of the largest enterprises and governments in the world solve their most difficult IT challenges, we are strengthened by our unique perspectives and by our collective actions.  We are an organization with stakeholders around the world and it’s imperative that the diversity of our customers and communities is reflected internally in our team members. We strive to create a diverse and inclusive environment where everyone feels they have opportunities to succeed and grow because we know that only together can we do great things.  Each of our team members has 5 days set aside as volunteer time off (VTO) to contribute to the communities they live in and give back to the causes they care about most. Interns and other Tanium contractors are eligible for VTO after 90 days of employment.  For more information on how Tanium processes your personal data, please see our Privacy Policy.  #Hybrid</v>
+      </c>
+      <c r="C18" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Tanium/Tanium-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1736369343313</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>School of Earth and Space Exploration</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Department Statement:  The School of Earth and Space Exploration integrates astrophysicists, Earth scientists, planetary scientists, and instrument‐building engineers into a unique transdisciplinary faculty, and we are dedicated to both research and education. Our school stretches over 7 buildings, and includes more than 60 faculty members, 120 graduate students, and about 500 undergraduate majors. We are the home of major research and innovative education initiatives, and we are also active in outreach and informal education. We are dedicated to a positive, collaborative workplace, and to supporting the goals and development of everyone here.  Job Profile:  Student Worker IV Job Family:  Student Employee Time Type:  Part time Max Pay – Depends on experience:  $17.40 USD Hourly Job Description: Job Description: Database Developer - In this role you will implement a comprehensive data warehouse for the L’Space team to manage admissions and students.  Working closely with a Data Warehouse architect, you will implement the solution on an ASU hosted MySQL Server. Essential Duties:  Implementation will involve developing procedures to ingest data directly from Google forms/sheets into a MySQL database.  The project will begin with the ingestion of historical data, and then move on to automated procedures to ingest future data.  Experience developing front-end database CRUD forms is desired as well, including the use of application frameworks such as Budibase. Candidates must have achieved the requirements in the context of an internship or job; course work alone will not meet job requirements. Desired Qualifications:  •    MySQL Development experience (or other RDBMS)     •    ETL experience with any RDBMS     •    Python     •    Google Forms     •    JSON     •    Java Working Environment:  Student Workers will report to the Mars Space Flight Facility Instrument Incubator Lab in the Moeur Building.  They will have access to lab equipment including, but not limited to, 3D printers, clean room, computer lab.  Minimum Qualifications:  Duties are highly technical and/or complex and involve a significant degree of responsibility and judgment. This classification is limited to teaching/research aide type work or those positions requiring highly specialized skills and/or technical knowledge. Driving Requirement:  Driving is not required for this position. Location:  Campus: Tempe Funding:  Grant Funded Instructions to Apply  Current Employees and Students should apply directly within Workday using the Jobs Hub. Use this link and log in using SSO:  To be considered, your application must include all of the following attachments:   Cover letter Resume/CV Note: Multiple documents can be submitted into the attachment box. Alternatively, merge all documents into one PDF for submission.  Please include all employment information in month/year format (e.g., 6/88 to 8/94), job title, job duties and name of employer for each position. Resume should clearly illustrate how prior knowledge and experience meets the Minimum and Desired qualifications of this position. NOTE: GA and Intern positions are counted as .5 for job experience (ie. 1 year equals 6 months experience equivalency). Only electronic applications are accepted for this position.  Need help finding the right job? We can recommend jobs specifically for you! Create a custom Job Alert by selecting criteria that suit your career interests.</v>
+      </c>
+      <c r="C19" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/School of Earth and Space Exploration/School of Earth and Space Exploration-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1736376554941</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>ASU-GRADER</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Department Statement:  The Ira A. Fulton Schools of Engineering is the largest engineering school in the nation and seeks to deliver a world-class learning experience for our students and to advance research and innovation – all at scale. We value and emphasize inherently interdisciplinary endeavors that leverage the breadth and depth of expertise among our outstanding faculty, and have built a unique place for large-scale innovation characterized by foundational excellence and translational impacts. We are an engineering school on the rise in the most innovative university in the country and in the heart of the nation’s fifth largest metropolitan area. The scale of our faculty research interests and interdisciplinary mindset combined with nearly 47 graduate degree programs and 25 undergraduate degree programs provide the foundation and collaborative possibilities to advance new ideas.  The Fulton Schools of Engineering on the Tempe and Polytechnic campuses is comprised of seven schools based on academic programs and research areas. Fulton Engineering has a nationally recognized faculty that conducts research, instructs and mentors students, and provides service to the profession and community. Creating diverse and inclusive communities are central to our values. With a firmly set direction to continually increase representation, foster belonging, empower diversity of thought, we are also strengthening our commitment to excellence in research, engagement and high-quality education. Learn more at https://engineering.asu.edu.  Job Profile:  Student Worker III Job Family:  Student Employee Time Type:  Part time Max Pay – Depends on experience:  $16.50 USD Hourly Job Description: The Polytechnic School is currently seeking highly qualified candidates to fill the position of Grader for the following: HSE, GIT, EGR, AMT, ERM, IT AND TEM. The Grader will assist Instructor with carrying out general Course responsibilities including but not limited to grading assignments, providing assistance during in-class activities and office hours, and managing the course's blackboard page.  It is requested that the Grader has attended the course section assigned. Graders should be available for about 15 minutes per week to meet with the Instructor to prepare for class and discuss assignments.  Hourly pay: $15.62 - $16.50 per hour; DOE  Essential Duties:  Setting up class activities Attending class to assist the Instructor. Posting information and grades on Blackboard. Assisting students with course-related questions during class and during office hours. Grading - materials will generally be expected to be returned to students within 2-5 days of the day it was turned in. Desired Qualifications:  Graders who are available during their assigned class time and have previously completed the course from The Polytechnic School with the designated Instructor are highly preferred. Graders must have strong interpersonal and communication skills. Working Environment:  Graders will work with the Instructor and report regularly to the Instructor. The Instructor will provide weekly tasks to the Grader. Graders will do their grading duties using their own personal computers or an on-campus computer. Minimum Qualifications:  Duties are technical and complex and involve a high degree of responsibility and judgment. May supervise or direct activities of other student employees. A significant amount of specialized training or experience is required.</v>
+      </c>
+      <c r="C20" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ASU-GRADER/ASU-GRADER-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1736465017437</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Tesla</v>
+      </c>
+      <c r="B21" t="str">
+        <v>What to Expect Consider before submitting an application:      This position is expected to start around May 2025 and continue through the Summer term (approximately August 2025) or into Fall 2025 if available and there is an opportunity to do so. We ask for a minimum of 12 weeks, full-time and on-site, for most internships. Our internship program is for students who are actively enrolled in an academic program. Recent graduates seeking employment after graduation and not returning to school should apply for full-time positions, not internships.  International Students: If your work authorization is through CPT, please consult your school on your ability to work 40 hours per week before applying. You must be able to work 40 hours per week on-site. Many students will be limited to part-time during the academic year.      The Internship Recruiting Team is driven by the passion to recognize and develop emerging talent. Our year-round program places the best students in positions where they will grow technically, professionally, and personally through their experience working closely with their Manager, Mentor, and team. We provide an experience that allows the intern to experience life at Tesla by including them in projects that are critical to their team’s success.    Location: Palo Alto, CA    About the Team  Tesla is seeking a Software Engineer Intern to help design frameworks and infrastructure to validate Tesla's update systems. The Update Systems team supports over the air updates (OTA), a critical component in the way Tesla operates its fleet and continues to improve the customers' experience. In this role, you will be responsible for the quality of the components within the update system. You will also design and maintain automated HIL and SIL test suites, python tools used within these test suites, as well as HIL test setups.  What You’ll Do Develop scenarios, test cases, and write test code for update systems using hardware and software in the loop testing environments Maintain autonomous test and reporting infrastructure Maintain internal python tools to support validation efforts and test automation Define, gather, and report on performance and health metrics related to the system updater Work cross-functionally to investigate and validate issues Communicate with developers to proactively identify problems and gaps in test What You’ll Bring Currently pursuing a degree in Computer Science or a related field with a graduation date between 2025 - 2026 Strong Python programmer Acute attention to detail Ability to understand, test, and troubleshoot complicated system interactions Experience developing tests with reusable code Ability to develop test guidelines from specifications Strong understanding of object-oriented design and algorithms Ability to drive problems to solutions across different groups in the company Strong communication skills Compensation and Benefits Benefits As a full-time Tesla Intern, you will be eligible for:  Aetna PPO and HSA plans &gt; 2 medical plan options with $0 payroll deduction Family-building, fertility, adoption and surrogacy benefits Dental (including orthodontic coverage) and vision plans. Both have an option with a $0 payroll contribution Company Paid (Health Savings Account) HSA Contribution when enrolled in the High Deductible Medical Plan with HSA Healthcare and Dependent Care Flexible Spending Accounts (FSA) 401(k), Employee Stock Purchase Plans, and other financial benefits Company Paid Basic Life, AD&amp;D, and short-term disability insurance Employee Assistance Program Sick time after 90 days of employment and Paid Holidays Back-up childcare and parenting support resources Voluntary benefits to include: critical illness, hospital indemnity, accident insurance, theft &amp; legal services, and pet insurance Commuter benefits Employee discounts and perks program  Expected Compensation $36.06 - $50.48 + benefits  Pay offered may vary depending on multiple individualized factors, including market location, job-related knowledge, skills, and experience. The total compensation package for this position may also include other elements dependent on the position offered. Details of participation in these benefit plans will be provided if an employee receives an offer of employment.    Tesla is an Equal Opportunity / Affirmative Action employer committed to diversity in the workplace. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, sexual orientation, age, national origin, disability, protected veteran status, gender identity or any other factor protected by applicable federal, state or local laws.  Tesla is also committed to working with and providing reasonable accommodations to individuals with disabilities. Please let your recruiter know if you need an accommodation at any point during the interview process.  For quick access to screen reading technology compatible with this site click here to download a free compatible screen reader (free step by step tutorial can be found here). Please contact accommodationrequest@tesla.com for additional information or to request accommodations.  Privacy is a top priority for Tesla. We build it into our products and view it as an essential part of our business. To understand more about the data we collect and process as part of your application, please view our Tesla Talent Privacy Notice</v>
+      </c>
+      <c r="C21" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Tesla/Tesla-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D21" t="str">
+        <v>1736545184638</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Pure Storage</v>
+      </c>
+      <c r="B22" t="str">
+        <v>BE PART OF BUILDING THE FUTURE.  What do NASA and emerging space companies have in common with COVID vaccine R&amp;D teams or with Roblox and the Metaverse?   The answer is data, -- all fast moving, fast growing industries rely on data for a competitive edge in their industries. And the most advanced companies are realizing the full data advantage by partnering with Pure Storage. Pure’s vision is to redefine the storage experience and empower innovators by simplifying how people consume and interact with data. With 11,000+ customers including 58% of the Fortune 500, we’ve only scratched the surface of our ambitions.   Pure is blazing trails and setting records:  For ten straight years, Gartner has named Pure a leader in the Magic Quadrant  Our customer-first culture and unwavering commitment to innovation have earned us a certified Net Promoter Score in the top 1% of B2B companies globally Industry analysts and press applaud Pure’s leadership across these dimensions And, our 5,000+ employees are emboldened to make Pure a faster, stronger, smarter company as we go  If you, like us, say “bring it on” to exciting challenges that change the world, we have endless opportunities where you can make your mark.  SHOULD YOU ACCEPT THIS CHALLENGE...  Our summer interns work on impactful projects that contribute to the success of Pure. As a Software Engineer Intern, you'll be matched to a unique project that is based on your interests and background, and typically partnered with another intern to balance the workload. Pure’s intern projects are set up to enhance individual engineering skills, support overall professional development, and give a taste of what it's like to work at Pure.  WHAT YOU’LL NEED TO BRING TO THIS ROLE...  Currently enrolled in a BS, MS, or PhD program in Computer Science or a related field, with an expected graduation date in or after December 2025 Solid understanding of Computer Science fundamentals C++ programming required  Additional dexterity in programming languages C, Python, or Go preferred Knowledge of operating systems a plus  Strong verbal and written communication skills  Initiative to meet deadlines and deliver high quality results without supervision  Able to work 12 consecutive weeks full-time during Summer 2025 Must be willing and able to work in an open office, team environment You will be based in Santa Clara. As this is an office-centric role, you are expected to be present in the office for 4 days a week. As outlined in Pure's Hybrid Work Policy, there will be variations over periods of time, depending on business need.  The monthly base salary range is: $8,500 – $10,000. Salary ranges are determined based on academic degree at the time of offer extended. This role may be eligible for housing assistance and/or travel bonus.  And because we understand the value of bringing your full and best self to work, we offer a variety of perks and company-sponsored team events to manage a healthy balance.      BE YOU—CORPORATE CLONES NEED NOT APPLY.     Pure is where you ask big questions, think differently, and make an impact. This is not just a job, but a place where you have a voice and can accelerate your career. We value unique thoughts and celebrate individuality, and with ample opportunity to learn, develop yourself, and expand into different roles, joining Pure is an investment in your career journey.     Through our Pure Equality program, which supports a flourishing field of employee resource groups, we nourish the personal and professional lives of our team members. And our Pure Good Foundation gives back to local and global communities through volunteering and grants.     And because we understand the value of bringing your full and best self to work, we offer a variety of perks to manage a healthy balance, including flexible time off, wellness resources, and company-sponsored team events.     PURE IS COMMITTED TO EQUALITY.  Research shows that in order to apply for a job, women feel they need to meet 100% of the criteria while men usually apply after meeting about 60%. Regardless of how you identify, if you believe you can do the job and are a good match, we encourage you to apply.   Pure is proud to be an equal opportunity and affirmative action employer. We do not discriminate based upon race, religion, color, national origin, sex (including pregnancy, childbirth, or related medical conditions), sexual orientation, gender, gender identity, gender expression, transgender status, sexual stereotypes, age, status as a protected veteran, status as an individual with a disability, or any other characteristic legally protected by the laws of the jurisdiction in which you are being considered for hire.     If you need assistance or an accommodation due to a disability, you may contact us at TA-Ops@purestorage.com.     APPLICANT &amp; CANDIDATE PERSONAL INFORMATION PRIVACY NOTICE.  If you're wondering how or why Pure collects or uses information you provide, we invite you to check out our Applicant &amp; Candidate Personal Information Protection Notice.  DEEMED EXPORT LICENSE NOTICE.  Some positions may require a deemed export license for compliance with applicable laws and regulations. Please note: Pure does not currently sponsor deemed export license applications so we are unable to proceed with applicants requiring stated sponsorship.</v>
+      </c>
+      <c r="C22" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Pure Storage/Pure Storage-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D22" t="str">
+        <v>1736546481036</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>C3.ai</v>
+      </c>
+      <c r="B23" t="str">
+        <v>C3.ai, Inc. (NYSE:AI) is a leading Enterprise AI software provider for accelerating digital transformation. The proven C3 AI Platform provides comprehensive services to build enterprise-scale AI applications more efficiently and cost-effectively than alternative approaches. The C3 AI Platform supports the value chain in any industry with prebuilt, configurable, high-value AI applications for reliability, fraud detection, sensor network health, supply network optimization, energy management, anti-money laundering, and customer engagement. Learn more at: C3 AI  We are looking for Software Engineers to join us during our Summer 2025 internship program.  As a Software Engineer Intern, you will design and develop AI applications using the C3 AI Suite. Software Engineers may be assigned to work on our platform or solutions engineering teams. You will collaborate to do meaningful work while also growing your expertise.  Responsibilities:  Design, develop, and maintain performant and scalable applications. Build and improve tools for internal C3 teams to understand and analyze large-scale data. Work closely with and incorporate feedback from Products and Engineering teams. Define and lead end-to-end development of applications. Qualifications:  Pursuing a Bachelor of Science or Master of Science in Computer Science, Computer Engineering, or related fields. Experience with JavaScript, Java, or other object-oriented programming language. Strong hands-on experience and understanding of object-oriented programming, data structures, algorithms, profiling &amp; optimization. Real passion for developing team-oriented solutions to complex engineering problems. Thrive in an autonomous, empowering and exciting environment. Great verbal and written communication skills to collaborate multi-functionally and improve scalability. Interest in committing to a fun, friendly, expansive, and intellectually stimulating environment. C3 AI provides excellent benefits and a competitive compensation package, which include:    Salary range: $6,000 - $8,000 USD per month. At the office, we offer a fully stocked kitchen with catered lunch, table tennis and pool table, free membership at our on-site gym, Friday evening social hours with food, drink and music and a fun team of great people.  C3 AI is proud to be an Equal Opportunity and Affirmative Action Employer. We do not discriminate on the basis of any legally protected characteristics, including disabled and veteran status.</v>
+      </c>
+      <c r="C23" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/C3.ai/C3.ai-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D23" t="str">
+        <v>1736547090186</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Intuitive</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Job Description Primary Function of Position  The Core Technologies Engineering (CTE) group within Intuitive has a summer opening in Sunnyvale, CA for a software engineering intern with a focus on the internal da Vinci emulator. You will be on a small team responsible for building, deploying, and supporting our full-system emulator and hybrid hardware-in-the-loop setups.  A successful intern candidate will be able to work with our team but also make independent progress on a project improving our emulator. Multiple projects are possible, so a candidate will need to select a project to work to their strengths in prototyping, implementing, and deploying a software project. A deep sense of shared responsibility and shared reward is required, as is the ability to make work fun and interesting  Essential Job Duties  Expanding the functionality of the internal da Vinci emulator, which might be user interface, microcontroller simulation, Linux kernel module support, or virtualization efforts, depending on candidate background. Learn and practice our team’s methodology for developing, deploying, and supporting an internal tool within the Intuitive engineering organization. Continually communicate with engineers outside of our group throughout the course of the internship.    Qualifications Required Skills and Experience  Working experience with C++ or Python (preference will be given to candidates who can demonstrate ability in both languages.) Experience on a software project lasting at least three months. (You will be expected to present on this existing project during hiring.) University Hiring Program Eligibility Requirements:  University Enrollment: Must be currently enrolled in and returning to an accredited degree-seeking academic program in the Fall. Internship Work Period: Must be available to work full-time (approximately 40 hours per week) during a 10-12 week period starting May or June. Specific start dates are shared during the recruiting process. Required Education and Training  Current enrollment in any degree-seeking program which includes some software development (Computer Science, Computer Engineering, but Electrical Engineer if software electives are present) coursework at the Bachelor’s, Master’s, or Doctorate level. Preferred Skills and Experience  Working knowledge of the Linux operating system Working knowledge of Docker containerization Experience developing software for embedded microcontrollers Any virtualization software experience (VMWare, QEMU, etc.) beyond causal use.</v>
+      </c>
+      <c r="C24" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Intuitive/Intuitive-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D24" t="str">
+        <v>1736920178167</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>PayPal</v>
+      </c>
+      <c r="B25" t="str">
+        <v>The Company PayPal has been revolutionizing commerce globally for more than 25 years. Creating innovative experiences that make moving money, selling, and shopping simple, personalized, and secure, PayPal empowers consumers and businesses in approximately 200 markets to join and thrive in the global economy.  We operate a global, two-sided network at scale that connects hundreds of millions of merchants and consumers. We help merchants and consumers connect, transact, and complete payments, whether they are online or in person. PayPal is more than a connection to third-party payment networks. We provide proprietary payment solutions accepted by merchants that enable the completion of payments on our platform on behalf of our customers.  We offer our customers the flexibility to use their accounts to purchase and receive payments for goods and services, as well as the ability to transfer and withdraw funds. We enable consumers to exchange funds more safely with merchants using a variety of funding sources, which may include a bank account, a PayPal or Venmo account balance, PayPal and Venmo branded credit products, a credit card, a debit card, certain cryptocurrencies, or other stored value products such as gift cards, and eligible credit card rewards. Our PayPal, Venmo, and Xoom products also make it safer and simpler for friends and family to transfer funds to each other. We offer merchants an end-to-end payments solution that provides authorization and settlement capabilities, as well as instant access to funds and payouts. We also help merchants connect with their customers, process exchanges and returns, and manage risk. We enable consumers to engage in cross-border shopping and merchants to extend their global reach while reducing the complexity and friction involved in enabling cross-border trade.  Our beliefs are the foundation for how we conduct business every day. We live each day guided by our core values of Inclusion, Innovation, Collaboration, and Wellness. Together, our values ensure that we work together as one global team with our customers at the center of everything we do – and they push us to ensure we take care of ourselves, each other, and our communities.  Job Description Summary: At PayPal, we’re literally reinventing how the world pays and gets paid. We understand that it’s about people. We connect individuals to let them shop, get paid, donate and send money using today’s technology with the confidence that comes from the security and control PayPal enables. Are you ready to help us change the world? The world’s leading payments company, PayPal, brings together a family of brands that are revolutionizing the way people move money. At PayPal you will be immersed in an amazing community with a vibrant culture that thrives on innovation, collaboration, inclusion and wellness. Software Engineer Interns at PayPal develop innovative solutions and high-quality products that touch millions of people every day. Our engineers solve some of the most complex technical problems in the world of connected payments across multiple business units, (including PayPal, Braintree, Venmo, Paydiant). We are looking for the highest levels of technical talent and programming skills, as well as a keen desire to deeply understand our products and services to push our technology forward with respect to functionality, performance, reliability, and scalability. As a Back-End Software Engineer Intern, you will work alongside the best and the brightest engineering talent in the industry. As a core participant of your team, you’ll estimate engineering efforts, design your changes, implement, and test your changes, push to live, and triage production issues. You need to be dynamic, collaborative, and curious as we build new experiences, improve existing products, and develop distributed systems powering the world’s largest e-commerce and payments websites at a scale only a few companies can match.  Job Description: Key Responsibilities:  Code high-volume and scalable software. This may include creating back-end services using Java, SQL, ReST.  Partner closely with cross functional teams which may include front-end developers, design, product and other business units.  Write clean, scalable, and maintainable code in languages such as Python, Java, or Node.js.  Develop and maintain databases, ensuring data integrity and performance optimization.  Participate in code reviews and contribute to the improvement of internal coding standards and best practices.  Assist in troubleshooting, debugging, and optimizing performance of back-end services.     Basic Requirements:  Strong applied experience. You’ve built, broken, and rebuilt software applications. We’re looking for creative thinkers who also know how to create real-world products.  Solid understanding of server-side languages such as Python, Java, Node.js, or similar.  Familiarity with database technologies such as SQL, NoSQL, PostgreSQL, MongoDB, etc.  Understanding of concepts like Web Services, SOA, REST APIs  Strong problem-solving skills and attention to detail.  A constant desire to grow, learn, and explore new things    Internship Program Information and Requirements:  This is a Summer 2025 Internship program. Spring and Fall 2025 internships are not available.  Must currently be pursuing Bachelor’s or Master’s degree in Computer Science or related field from an accredited college or university.  Must be returning to school in the Fall of 2025.  Must reside in the U.S. during the Summer internship program.  Must be able to obtain authorization to work in the U.S. for the summer.    Position Location: Varies within U.S. PayPal Office Locations  globaluniversityinternsoftwareengineering  For the majority of employees, PayPal's balanced hybrid work model offers 3 days in the office for effective in-person collaboration and 2 days at your choice of either the PayPal office or your home workspace, ensuring that you equally have the benefits and conveniences of both locations.  Our Benefits:  At PayPal, we’re committed to building an equitable and inclusive global economy. And we can’t do this without our most important asset—you. That’s why we offer benefits to help you thrive in every stage of life. We champion your financial, physical, and mental health by offering valuable benefits and resources to help you care for the whole you.  We have great benefits including a flexible work environment, employee shares options, health and life insurance and more. To learn more about our benefits please visit https://www.paypalbenefits.com  Who We Are:  To learn more about our culture and community visit https://about.pypl.com/who-we-are/default.aspx  Commitment to Diversity and Inclusion  PayPal provides equal employment opportunity (EEO) to all persons regardless of age, color, national origin, citizenship status, physical or mental disability, race, religion, creed, gender, sex, pregnancy, sexual orientation, gender identity and/or expression, genetic information, marital status, status with regard to public assistance, veteran status, or any other characteristic protected by federal, state, or local law. In addition, PayPal will provide reasonable accommodations for qualified individuals with disabilities. If you are unable to submit an application because of incompatible assistive technology or a disability, please contact us at paypalglobaltalentacquisition@paypal.com.  Belonging at PayPal:  Our employees are central to advancing our mission, and we strive to create an environment where everyone can do their best work with a sense of purpose and belonging. Belonging at PayPal means creating a workplace with a sense of acceptance and security where all employees feel included and valued. We are proud to have a diverse workforce reflective of the merchants, consumers, and communities that we serve, and we continue to take tangible actions to cultivate inclusivity and belonging at PayPal.  Any general requests for consideration of your skills, please Join our Talent Community.  We know the confidence gap and imposter syndrome can get in the way of meeting spectacular candidates. Please don’t hesitate to apply.  REQ ID R0121793</v>
+      </c>
+      <c r="C25" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/PayPal/PayPal-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1736927303286</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>ASU IT</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Department Statement:  The Ira A. Fulton Schools of Engineering is the largest engineering school in the nation and seeks to deliver a world-class learning experience for our students and to advance research and innovation – all at scale. We value and emphasize inherently interdisciplinary endeavors that leverage the breadth and depth of expertise among our outstanding faculty, and have built a unique place for large-scale innovation characterized by foundational excellence and translational impacts. We are an engineering school on the rise in the most innovative university in the country and in the heart of the nation’s fifth largest metropolitan area. The scale of our faculty research interests and interdisciplinary mindset combined with nearly 47 graduate degree programs and 25 undergraduate degree programs provide the foundation and collaborative possibilities to advance new ideas.  The Fulton Schools of Engineering on the Tempe and Polytechnic campuses is comprised of seven schools based on academic programs and research areas. Fulton Engineering has a nationally recognized faculty that conducts research, instructs and mentors students, and provides service to the profession and community. Creating diverse and inclusive communities are central to our values. With a firmly set direction to continually increase representation, foster belonging, empower diversity of thought, we are also strengthening our commitment to excellence in research, engagement and high-quality education. Learn more at https://engineering.asu.edu.  Job Profile:  Student Worker III Job Family:  Student Employee Time Type:  Part time Max Pay – Depends on experience:  $16.50 USD Hourly Job Description: The Polytechnic School is currently seeking highly qualified candidates to fill the position of an IT Grader. The Grader will assist Instructor with carrying out general Course responsibilities including but not limited to grading assignments, providing assistance during in-class activities and office hours, and managing the course's blackboard page.  It is requested that the Grader has attended the course section assigned. Graders should be available for about 15 minutes per week to meet with the Instructor to prepare for class and discuss assignments.  Hourly pay: $15.62 - $16.50 per hour; DOE  Essential Duties:  Setting up class activities Attending class to assist the Instructor. Posting information and grades on Blackboard. Assisting students with course-related questions during class and during office hours. Grading - materials will generally be expected to be returned to students within 2-5 days of the day it was turned in. Desired Qualifications:  Graders who are available during their assigned class time and have previously completed the course from The Polytechnic School with the designated Instructor are highly preferred. Graders must have strong interpersonal and communication skills. Working Environment:  Graders will work with the Instructor and report regularly to the Instructor. The Instructor will provide weekly tasks to the Grader. Graders will do their grading duties using their own personal computers or an on-campus computer. Minimum Qualifications:  Duties are technical and complex and involve a high degree of responsibility and judgment. May supervise or direct activities of other student employees. A significant amount of specialized training or experience is required. Driving Requirement:  Driving is not required for this position. Location:  Campus: Polytechnic Funding:  No Federal Funding Instructions to Apply  Current Employees and Students should apply directly within Workday using the Jobs Hub. Use this link and log in using SSO:  To be considered, your application must include all of the following attachments:   Cover letter Resume/CV Note: Multiple documents can be submitted into the attachment box. Alternatively, merge all documents into one PDF for submission.  Please include all employment information in month/year format (e.g., 6/88 to 8/94), job title, job duties and name of employer for each position. Resume should clearly illustrate how prior knowledge and experience meets the Minimum and Desired qualifications of this position. NOTE: GA and Intern positions are counted as .5 for job experience (ie. 1 year equals 6 months experience equivalency). Only electronic applications are accepted for this position.  Need help finding the right job? We can recommend jobs specifically for you! Create a custom Job Alert by selecting criteria that suit your career interests.  Apply before midnight Arizona time:  ASU Statement   Arizona State University is a new model for American higher education, an unprecedented combination of academic excellence, entrepreneurial energy and broad access. This New American University is a single, unified institution comprising four differentiated campuses positively impacting the economic, social, cultural and environmental health of the communities it serves. Its research is inspired by real world application blurring the boundaries that traditionally separate academic disciplines. ASU serves more than 100,000 students in metropolitan Phoenix, Arizona, the nation's fifth largest city. ASU champions intellectual and cultural diversity, and welcomes students from all fifty states and more than one hundred nations across the globe.   ASU is a tobacco-free university. For details visit https://wellness.asu.edu/explore-wellness/body/alcohol-and-drugs/tobacco   Arizona State University is a VEVRAA Federal Contractor and an Equal Opportunity/Affirmative Action Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, protected veteran status, or any other basis protected by law.    Notice of Availability of the ASU Annual Security and Fire Safety Report   In compliance with federal law, ASU prepares an annual report on campus security and fire safety programs and resources. ASU’s Annual Security and Fire Safety Report is available online at https://www.asu.edu/police/PDFs/ASU-Clery-Report.pdf. You may request a hard copy of the report by contacting the ASU Police Department at 480-965-3456.   Relocation Assistance – For information about schools, housing child resources, neighborhoods, hospitals, community events, and taxes, visit https://cfo.asu.edu/az-resources.  Employment Verification Statement   ASU conducts pre-employment screening which may include verification of work history, academic credentials, licenses, and certifications.  Background Check Statement   ASU conducts pre-employment screening for all positions which includes a criminal background check, verification of work history, academic credentials, licenses, and certifications. Employment is contingent upon successful passing of the background check.  Fingerprint Check Statement  A fingerprint check is not required for this position.</v>
+      </c>
+      <c r="C26" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ASU IT/ASU IT-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D26" t="str">
+        <v>1736962325118</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>ASU Chandler Innovation Center</v>
+      </c>
+      <c r="B27" t="str">
+        <v>The ASU Chandler Innovation Center (ACIC) is seeking a part-time Event and Operations Coordinator to help support the daily operations of the facility. Responsibilities include supporting use of meeting, event and classroom spaces, supporting the daily operations of the facility, and providing front desk coverage. Applicants must have reliable transportation to and from the ASU Chandler Innovation Center in downtown Chandler.   Located in Chandler, Arizona the ASU Chandler Innovation Center (ACIC) is a partnership between ASU and the City of Chandler. ACIC is a 33,297 square-foot building housing meeting and event space, classrooms, office and co-working space. The facility also includes a fabrication shop space supporting ASU and ASU affiliate programming.  Days and Schedule: Work location is ASU Chandler Innovation Center in downtown Chandler. Work schedule will vary depending on the meeting, event, and class schedule and students’ schedules. Must be available to work flexible hours including evenings, early mornings, and weekends.  To address the coverage needs of the ASU Chandler Innovation Center, applicants with availability on Mondays, Wednesdays, Saturdays, and Sundays will receive primary interview consideration.  Essential Duties:  Events &amp; Meetings  Serve as the main onsite point of contact for events/meetings that occur after regular business hours (early mornings, evenings and weekends).  Provide day-of support to classes, meetings, and events in the building by:   Preparing rooms before groups arrive, including setting up tables and chairs, posting signage, checking temperature in the room, turning on lights and audio-visual equipment, and opening doors.   Greeting the onsite point of contact for events, assisting them with getting connected to audio-visual equipment, and helping load in event supplies.   Completing an attendance count.   At the end of the event/meeting, assist with loading out supplies, cleaning and straightening the room, turning off lights and audio-visual equipment.   Ensure the proper storage and organization of event equipment and supplies.  Assist with data entry of reservations into the facility’s space reservation management system and with creating diagrams for events/meetings, as needed.   Building Operations  Complete opening and closing procedures for the building.  Staff the front desk, which involves:  Greeting space users and ensuring they check-in to the facility utilizing software at the front desk.  Being knowledgeable about the facility and answering questions from space users that come into the facility in person, call the general phone line, or email.   Accepting package deliveries.  Managing the lost and found.   Maintaining the cleanliness of the classrooms and public areas in the facility.   Monitoring general office/building supplies, restocking, and submitting orders as needed.   Support marketing efforts (creating flyers, preparing collateral, tabling at events, etc.)   Other duties as assigned.  Desired Qualifications:  Available to work flexible hours including evenings, early mornings, weekends, and possible holidays.  Prior experience in customer service  Demonstrated effective written and verbal communication skills  Demonstrated reliability   Experience using SmartSheets or other spreadsheet software is preferred  Undergraduate students preferred  Reliable transportation to the ASU Chandler Innovation Center  Working Environment:   ​  Activities are performed in an environmentally controlled office and fabrication shop setting subject to extended periods of standing, walking, or sitting.   Frequent bending, reaching, lifting, pushing and pulling up to 30-50 pounds.  Regular activities require the ability to quickly change priorities.  Activities require the employee to clearly communicate verbally, read, write, see and hear to perform essential functions.  Work schedule will vary based on scheduled facility use and will include evenings, weekends, and possibly holidays.  Minimum Qualifications:  Duties are technical and complex and involve a high degree of responsibility and judgment. May supervise or direct activities of other student employees. A significant amount of specialized training or experience is required. Driving Requirement:  Driving is not required for this position. Location:  Off-Campus: Chandler/Gilbert Funding:  No Federal Funding Instructions to Apply  Current Employees and Students should apply directly within Workday using the Jobs Hub. Use this link and log in using SSO:  To be considered, your application must include all of the following attachments:   Cover letter Resume/CV Note: Multiple documents can be submitted into the attachment box. Alternatively, merge all documents into one PDF for submission.  Please include all employment information in month/year format (e.g., 6/88 to 8/94), job title, job duties and name of employer for each position. Resume should clearly illustrate how prior knowledge and experience meets the Minimum and Desired qualifications of this position. NOTE: GA and Intern positions are counted as .5 for job experience (ie. 1 year equals 6 months experience equivalency). Only electronic applications are accepted for this position.  Need help finding the right job? We can recommend jobs specifically for you! Create a custom Job Alert by selecting criteria that suit your career interests.  Apply before midnight Arizona time:  ASU Statement   Arizona State University is a new model for American higher education, an unprecedented combination of academic excellence, entrepreneurial energy and broad access. This New American University is a single, unified institution comprising four differentiated campuses positively impacting the economic, social, cultural and environmental health of the communities it serves. Its research is inspired by real world application blurring the boundaries that traditionally separate academic disciplines. ASU serves more than 100,000 students in metropolitan Phoenix, Arizona, the nation's fifth largest city. ASU champions intellectual and cultural diversity, and welcomes students from all fifty states and more than one hundred nations across the globe.   ASU is a tobacco-free university. For details visit https://wellness.asu.edu/explore-wellness/body/alcohol-and-drugs/tobacco   Arizona State University is a VEVRAA Federal Contractor and an Equal Opportunity/Affirmative Action Employer. All qualified applicants will receive consideration for employment without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability, protected veteran status, or any other basis protected by law.    Notice of Availability of the ASU Annual Security and Fire Safety Report   In compliance with federal law, ASU prepares an annual report on campus security and fire safety programs and resources. ASU’s Annual Security and Fire Safety Report is available online at https://www.asu.edu/police/PDFs/ASU-Clery-Report.pdf. You may request a hard copy of the report by contacting the ASU Police Department at 480-965-3456.   Relocation Assistance – For information about schools, housing child resources, neighborhoods, hospitals, community events, and taxes, visit https://cfo.asu.edu/az-resources.  Employment Verification Statement   ASU conducts pre-employment screening which may include verification of work history, academic credentials, licenses, and certifications.  Background Check Statement   ASU conducts pre-employment screening for all positions which includes a criminal background check, verification of work history, academic credentials, licenses, and certifications. Employment is contingent upon successful passing of the background check.  Fingerprint Check Statement  A fingerprint check is not required for this position</v>
+      </c>
+      <c r="C27" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/ASU Chandler Innovation Center/ASU Chandler Innovation Center-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1736963331360</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Cloudflare</v>
+      </c>
+      <c r="B28" t="str">
+        <v>About the job About Us  At Cloudflare, we are on a mission to help build a better Internet. Today the company runs one of the world’s largest networks that powers millions of websites and other Internet properties for customers ranging from individual bloggers to SMBs to Fortune 500 companies. Cloudflare protects and accelerates any Internet application online without adding hardware, installing software, or changing a line of code. Internet properties powered by Cloudflare all have web traffic routed through its intelligent global network, which gets smarter with every request. As a result, they see significant improvement in performance and a decrease in spam and other attacks. Cloudflare was named to Entrepreneur Magazine’s Top Company Cultures list and ranked among the World’s Most Innovative Companies by Fast Company.  We realize people do not fit into neat boxes. We are looking for curious and empathetic individuals who are committed to developing themselves and learning new skills, and we are ready to help you do that. We cannot complete our mission without building a diverse and inclusive team. We hire the best people based on an evaluation of their potential and support them throughout their time at Cloudflare. Come join us!  Available location(s): Austin, US  About Cloudflare's Engineering Teams  Anytime we push code, it automatically affects the millions of Internet properties (powering websites, remote teams, APIs, mobile apps, etc.) running on our global network. Cloudflare's network is one of the largest in the world and spans over 300 cities in more than 100 countries. What's more, Cloudflare operates within 50 milliseconds of 95% of the Internet-connected population globally (for context, the blink of an eye is 300-400 milliseconds!). We are passionate about making the Internet more secure, reliable, and faster for everyone.  Cloudflare’s Engineering teams build and run the software that handles the massive amount of traffic that flows through our network. We also have teams that build the UI and control plane for our software, using modern patterns and libraries in a microservices-based architecture. Technologies include: C/C++, Rust, Go, Go, Python, Typescript, JavaScript and ReactJS.  About The Internship Program  The ideal summer intern is passionate about making the Internet a better place. You will work with strong engineers. You will push code this summer that touches hundreds of millions of web surfers. We like to get things done, so we are looking for interns who are curious and can take on and complete projects. This is a great opportunity for engineers that want to learn to develop at Internet scale.  What would you do as a Cloudflare intern?  Ship and deliver projects over 12-16 weeks with autonomy and support. Work cross-functionally with various teams. Be assigned a mentor to guide you through the internship and help with career goals. Build your network across the company through our various in and out of office socials, networking programs, Employee Resource Group (ERG) programs, and Activity Groups (Cat or dog lovers, we’ve got communities for you! @Catflare @Doggos). Present your project to the entire company at the end of the internship. Get direct access to our executives and leadership team including our co-founders. Learn and develop skills through our professional development workshops. Write for our Cloudflare blog and be featured on Cloudflare.tv sessions.  Receive Cloudflare swag and free Cloudflare products!   You can check out our internship blogs to learn more about our program and hear directly from our past interns.  Examples Of Desirable Skills, Knowledge And Experience  Currently pursuing a degree or program in Computer Science, Engineering, Mathematics, Statistics or relevant field to the role. Demonstrated critical thinking skills and drive to learn and adapt new technologies. Curiosity, empathy and ability to get things done. Ability to commit to a 12 week summer internship. In office 3 days a week in Austin, TX.   Please note  We will be hiring interns through the fall and early spring on a rolling basis until all roles are complete.    What Makes Cloudflare Special?  We’re not just a highly ambitious, large-scale technology company. We’re a highly ambitious, large-scale technology company with a soul. Fundamental to our mission to help build a better Internet is protecting the free and open Internet.  Project Galileo: We equip politically and artistically important organizations and journalists with powerful tools to defend themselves against attacks that would otherwise censor their work, technology already used by Cloudflare’s enterprise customers--at no cost.  Athenian Project: We created Athenian Project to ensure that state and local governments have the highest level of protection and reliability for free, so that their constituents have access to election information and voter registration.  1.1.1.1: We released 1.1.1.1 to help fix the foundation of the Internet by building a faster, more secure and privacy-centric public DNS resolver. This is available publicly for everyone to use - it is the first consumer-focused service Cloudflare has ever released. Here’s the deal - we don’t store client IP addresses never, ever. We will continue to abide by our privacy commitment and ensure that no user data is sold to advertisers or used to target consumers.  Sound like something you’d like to be a part of? We’d love to hear from you!  This position may require access to information protected under U.S. export control laws, including the U.S. Export Administration Regulations. Please note that any offer of employment may be conditioned on your authorization to receive software or technology controlled under these U.S. export laws without sponsorship for an export license.  Cloudflare is proud to be an equal opportunity employer. We are committed to providing equal employment opportunity for all people and place great value in both diversity and inclusiveness. All qualified applicants will be considered for employment without regard to their, or any other person's, perceived or actual race, color, religion, sex, gender, gender identity, gender expression, sexual orientation, national origin, ancestry, citizenship, age, physical or mental disability, medical condition, family care status, or any other basis protected by law. We are an AA/Veterans/Disabled Employer.  Cloudflare provides reasonable accommodations to qualified individuals with disabilities. Please tell us if you require a reasonable accommodation to apply for a job. Examples of reasonable accommodations include, but are not limited to, changing the application process, providing documents in an alternate format, using a sign language interpreter, or using specialized equipment. If you require a reasonable accommodation to apply for a job, please contact us via e-mail at hr@cloudflare.com or via mail at 101 Townsend St. San Francisco, CA 94107.</v>
+      </c>
+      <c r="C28" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Cloudflare/Cloudflare-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D28" t="str">
+        <v>1738184620653</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Cadence</v>
+      </c>
+      <c r="B29" t="str">
+        <v>About the job At Cadence, we hire and develop leaders and innovators who want to make an impact on the world of technology.  Software Development Internship, SDA (Summer 2025)  Responsibilities  The Summer Intern will have an opportunity to learn Cadence processes for software development and build prototype for given problems and integrate in Cadence products.   Requirements  Currently pursuing BS or MS with major in CS, CE, ECE, or equivalent.  The Candidate Should Be Passionate About Learning New Technologies.  The candidate should have good understanding in programming languages (C++/Java Script/Python/Graphics Rendering 2D and 3D).  We’re doing work that matters. Help us solve what others can’t.</v>
+      </c>
+      <c r="C29" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Cadence/Cadence-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D29" t="str">
+        <v>1738455782807</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Cadence</v>
+      </c>
+      <c r="B30" t="str">
+        <v>About the job At Cadence, we hire and develop leaders and innovators who want to make an impact on the world of technology.  Software Development Internship, SDA (Summer 2025)  Responsibilities  The Summer Intern will have an opportunity to learn Cadence processes for software development and build prototype for given problems and integrate in Cadence products.   Requirements  Currently pursuing BS or MS with major in CS, CE, ECE, or equivalent.  The Candidate Should Be Passionate About Learning New Technologies.  The candidate should have good understanding in programming languages (C++/Java Script/Python/Graphics Rendering 2D and 3D).  We’re doing work that matters. Help us solve what others can’t.</v>
+      </c>
+      <c r="C30" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Cadence/Cadence-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1738455901970</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Cadence</v>
+      </c>
+      <c r="B31" t="str">
+        <v>About the job At Cadence, we hire and develop leaders and innovators who want to make an impact on the world of technology.  Software Development Internship, SDA (Summer 2025)  Responsibilities  The Summer Intern will have an opportunity to learn Cadence processes for software development and build prototype for given problems and integrate in Cadence products.   Requirements  Currently pursuing BS or MS with major in CS, CE, ECE, or equivalent.  The Candidate Should Be Passionate About Learning New Technologies.  The candidate should have good understanding in programming languages (C++/Java Script/Python/Graphics Rendering 2D and 3D).  We’re doing work that matters. Help us solve what others can’t.</v>
+      </c>
+      <c r="C31" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Cadence/Cadence-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1738455983880</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Verint</v>
+      </c>
+      <c r="B32" t="str">
+        <v>ob Description  At Verint, we believe customer engagement is the core of every global brand. Our mission is to help organizations elevate Customer Experience (CX) and increase workforce productivity by delivering CX Automation. We hire innovators with the passion, creativity, and drive to answer constantly shifting market challenges and deliver impactful results for our customers. Our commitment to attracting and retaining a talented, diverse, and engaged team creates a collaborative environment that openly celebrates all cultures and affords personal and professional growth opportunities. Learn more at www.verint.com .  Overview of Job Function:  The Software Engineer Intern contributes to the design, development, implementation, support and maintenance of an enterprise application. Designs and delivers software enhancements, new functionality, code fixes across the existing product set. Provides application support and code fixes to internal services teams and customer raised issues. Possesses experience with commonly used concepts, practices, and procedures. Relies on pre-established guidelines to perform the functions of the position under general supervision. Collaborates with architects and product management team to implement features and enhancements. Collaborates with the Support and Quality Engineering team to address reliability and performance issues.  Principal Duties and Essential Responsibilities:   Help to design, implement and tests software applications. Participate in design reviews. Provide effective communication with geographically distributed team members. Support and/or install software applications/operating systems. Participate in the testing process through test review and analysis, test execution, and certification of software. Escalate urgent issues to Engineering Management. May interact with Business Analyst to ensure that specifications are satisfied. Communicate design, reliability and maintenance problems to appropriate internal resources.  May function in a support role with the following added responsibilities: Responsible for debugging, troubleshooting and developing technical solutions in the form of software patches related to software and setup errors for field engineers and customers. Create workaround solutions when product procedures have failed and ensures issues are resolved in a timely fashion. Escalate urgent problems requiring more in-depth knowledge to appropriate internal resources.   Minimum Requirements:   Pursuing a BS in Computer Science, Information Technology or related field Strong interest in Back End development Knowledge and experience of writing code with either Java (preferred) or .NET Ability to work in a cross-functional team environment Possess strong analytical and technical skills with ability to learn troubleshooting methods and perform root cause analysis Possess good written and verbal communication skills Understanding of basic networking and API frameworks  Understanding of Object-Oriented analysis and design Fast learner and able to pick up new ideas and approaches quickly Has strong organizational and time management skills Successful completion of the background check process, including but not limited to employment, education, criminal convictions, OFAC, SS Verification and credit, where available and in accordance with federal and local regulations.   Preferred Requirements:   Ability to work both independently as well as in a dynamic, distributed team environment Experience with frameworks and libraries Ability to adhere to strict delivery schedules and successfully manage multiple projects simultaneously Exceptional analytical and problem-solving skills Strong time management Exceptional attention to detail Experience with larger-scale software development projects  Knowledge of various software development methodologies (particularly Agile) and experience in all stages of the software development lifecycle</v>
+      </c>
+      <c r="C32" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Verint/Verint-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1738458885634</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Moloco</v>
+      </c>
+      <c r="B33" t="str">
+        <v>About Moloco:  Moloco is a machine learning company empowering organizations of all sizes to grow and unlock the full value of their unique first-party data, elevating the traditional path to performance advertising. While the largest technology companies have proven the speed and scale of ad-targeting utilizing data— the same robust performance powered by machine learning has previously been unavailable beyond their platforms.  That's where Moloco steps in. With Moloco's powerful combination of cutting-edge machine learning technologies, we play a unique and visible role in shaping the digital economy, all while allowing companies to stay independent and scale.  An industry leader at the nexus of machine learning, performance marketing, and visionary product infrastructure, Moloco is advancing the advertising technology industry. We ranked in the top 10% of the Inc. 5000 fastest-growing private companies for 2023. Recognized as one of 46 leading Cloud Computing companies, receiving the Stratus Award for 2023. In 2023, we received Google’s Cloud DevOps Dreamers Award, a recognition given to companies that are implementing DevOps practices to drive organizational success and high performance. Lastly, Moloco is a 2024-certified Great Place to Work! Check us out on Glassdoor and be sure to get an inside look at working at Moloco on Instagram, Twitter, and YouTube.  Moloco is headquartered in Silicon Valley, with offices in San Francisco, New York, Los Angeles, Seattle, London, Berlin, Seoul, Singapore, Beijing, Gurgaon, Bangalore, Tel Aviv and Tokyo.  Creating a diverse workforce and a culture of inclusion and belonging is core to our existence. To reach our goals, diversity of talent and thought is a critical component of how we operate as an organization. Our workforce is our superpower, and we know that fostering a culture of inclusion, authenticity, and belonging will allow us the greatest opportunity to carry out our mission -- to empower businesses of all sizes to grow through operational machine learning.  Moloco is a truly rewarding place to work and in an exciting period of growth, which you could be a part of. Join us today and apply now!  The Impact You’ll Be Contributing to Moloco:  We are an engineering company founded by engineers. We understand the value of a strong engineering team and strive to hire only the best engineering interns.  We are seeking exceptional interns to join us in building a next-generation ML-based ad-serving platform to satisfy the various needs of our customers. As an intern, you can expect to be a full member of the team you join and will be treated as a junior engineer with the same expectations, project opportunities and responsibilities. Some examples of past intern projects are:  Adding features to our high-performance, low-latency backend servers Enhancing our system in various aspects including but not limited to scalability, availability, and performance.  Developing novel improvements to pricing theory and/or algorithms Designing / planning / shipping new features in collaboration with other engineers, PMs and UI Designers. Developing internal tools to enhance developer productivity and system efficiency. Turning unstructured logs, messages, and events into structured data that can be utilized for analytics, ML, and more. Designing and implementing the backend data pipelines for manipulating and managing big data. Developing APIs to deliver and / or demonstrate the results of advertising campaigns to customers.  Minimum Qualifications:  Able and willing to work from our Seattle, WA or Redwood City, CA office. Available to work during the summer of 2025 (May through September). By the start of the internship, actively enrolled in a Bachelor's, Master’s or PhD program in Computer Science, or a related technical field, and returning back to the school program at the completion of the internship. Candidates pursuing a Bachelor's or Master's degree must be graduating and obtaining their degree by June of 2026.  Preferred Qualifications:  Strong background in data structures and algorithms. Strong coding and problem solving skills. Familiar with distributed systems and/or databases. Fluent with at least one programming language for server development like C/C++, Java, Go, Rust.  Our Compensation And Benefits (for United States Residents Only)  In accordance with various state laws, the range provided is a reasonable estimate of the base pay for this role. The actual amount may be higher or lower, based on non-discriminatory factors such as experience, knowledge, skills, and abilities. We also offer a competitive benefits package.  Base Pay Range:  $9,100—$11,000 USD  Moloco Thrive: Benefits and Well-Being:  We take care of you and create the conditions for you to do the best work of your career. Through a lens of inclusion, we offer innovative benefits that empower our employees to take care of themselves and their families so they can do the best work of their lives. For an overview of our global benefits, click here.  Moloco Values  Lead with Humility: Everyone’s voice is respected, valued, and heard. With humility, we become more open and accessible to each other. We win, lose, and learn together. Accountability and feedback are essential to our success.  Uncapped Growth Mindset: We see all situations as opportunities to learn, grow, and improve as individuals and as an organization. We seek diverse perspectives, encourage curiosity, and promote experimentation to push the boundaries of what’s possible.  Create Real Value: We pursue the most impactful opportunities with rigor and integrity. We take intelligent risks and make disciplined trade-offs to maintain deep focus. We help our customers win by delivering durable value.  Go Further Together: We’re one team working towards one mission and vision. We collaborate proactively and inclusively, involving the right people at the right time and in the right way. We strive to create a more equitable workplace. We won’t let each other fail.   Additional Resources:   Moloco Company Blog  Moloco Leadership Moloco Newsroom   Equal Opportunity:   Moloco is an equal opportunity employer. As we highly value diversity in our current and future employees, we do not discriminate (including in our hiring and promotion practices) on the basis of race, color, creed, religion, national origin, age, sex and gender, gender expression, and gender identity, sexual orientation, marital status, ancestry, physical or mental disability, military and veteran status, or any other characteristic protected by law.</v>
+      </c>
+      <c r="C33" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Moloco/Moloco-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D33" t="str">
+        <v>1738460058890</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Radian</v>
+      </c>
+      <c r="B34" t="str">
+        <v>About the job See yourself at Radian? We see you here too.  At Radian, we see you. For the person you are and the potential you hold. That’s why we’ve embraced a new way of working that lets our people across the country be themselves, be their best and be their boldest. Because when each of us is truly seen, each of us gives our best – and at Radian, we’ll give you our best right back.  Studies have shown that job seekers may hesitate to apply for jobs unless they meet every single qualification listed. We strive to see the potential in each applicant, so if you’re excited about this role but your experience or education level doesn’t align perfectly with every qualification in the job description, we encourage you to apply anyway. You may be just the right candidate for this or other roles.  This is a Summer 2025 Internship – Must be available Tuesday, May 27 - Friday, August 1, 2025  See Yourself as a Software Engineering GenAI Intern  We are currently seeking a talented and driven Software Engineering Intern to join our genAI team. As an intern with genAI, you will work closely with our experienced software engineers to develop and maintain software products, learn about the latest technologies and industry trends, and gain valuable experience in a fast-paced and dynamic work environment. This is a great opportunity to kick-start your career in software engineering and work on cutting-edge projects that make a difference in the world.  See The Primary Duties And Responsibilities  Collaborate to design, develop, and maintain software products using JavaScript or TypeScript or Python or Java or C# Participate in agile development methodologies such as Scrum Write clean, efficient, and well-documented code Learn about the latest technologies and industry trends in software engineering Conduct code reviews and provide feedback to team members Assist in testing and debugging software products Create and maintain technical documentation Continuously improve coding skills and knowledge of software engineering practices  See the Job Specifications  Basic Education And Prior Work-Related Experience  Required: currently pursuing an undergraduate or graduate degree with a concentration in Computer Science, Information Systems, Software Engineering, or related discipline.  Additional Qualifications  Demonstrated working knowledge of at least 1 of the following: Tensorflow, PyTorch, OpenAI, Anthropic, Perplexity, and Gemini. Experience in Artificial Intelligence or Machine Learning courses. Cloud Platform Experience: AWS, GCP, Azure Basic understanding of relational data models. Basic understanding of HTML, CSS, and core JavaScript concepts. Basic understanding of software development methodologies and agile practices Excellent analytical and problem-solving skills Strong communication skills to collaborate with team members Understanding of version control using Git Ability to learn quickly and adapt to new technologies and tools.  Program Requirements  Interns will be required to participate in specific workshops and events in addition to their intern duties assigned by their people leader. This includes a 2-day in-person event held at the end of July 2025 at our Wayne, PA headquarters.  See Your Location  Radian is committed to a flexible work environment for many of our roles. This is a *Work From Anywhere* role meaning you have the flexibility to work from home (or another designated workspace that fits your needs).  This role provides additional flexibility should you want to work on-site at a Radian office. Explore our office locations here and let your Talent Acquisition Partner know you would be interested in working on-site.  Work From Anywhere is subject to Radian’s Alternative Work Policy and business needs.  See Why You Should Work With Us  Competitive Compensation: anticipated hourly rate from $20.00 to $26.00 based on skills and experience. Our Company Makes an Impact. We’ve been recognized by multiple organizations like Bloomberg’s Gender-Equality Index, HousingWire’s Tech 100, and The Forum of Executive Women’s Champion of Board Diversity. Radian has also pledged to PwC’s CEO Action for Diversity &amp; Inclusion commitment.  The application period for the job is estimated to be 20 days from the job posting date. However, this timeline may be shortened or extended depending on business needs and the availability of qualified candidates.   Radian will consider for employment qualified applicants with arrest or conviction records in a manner consistent with the requirements of the law, including any applicable fair chance law.</v>
+      </c>
+      <c r="C34" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/Radian/Radian-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D34" t="str">
+        <v>1738461820862</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>NVIDIA</v>
+      </c>
+      <c r="B35" t="str">
+        <v>By submitting your resume, you’re expressing interest in one of our 2025 Software Engineering I nternship s. We ’ll review resumes on an ongoing basis, and a recruiter may reach out if your experience fits one of our many internship opportunities .   NVIDIA pioneered accelerated computing to tackle challenges no one else can solve. Our work in AI and digital twins is transforming the world's largest industries and profoundly impacting society — from gaming to robotics, self-driving cars to life-saving healthcare, climate change to virtual worlds where we can all connect and create.  Our internships offer an excellent opportunity to expand your career and get hands on with one of our industry leading Software teams. We’re seeking strategic, ambitious, hard-working, and creative individuals who are passionate about helping us tackle challenges no one else can solve.  Throughout the minimum 12-week internship, students will work on projects that have a measurable impact on our business. We’re looking for students pursuing Bachelor's, Master's, or PhD degree within a relevant or related field.  Potential Internships In This Field Include  Development Tools   Debugging complex system-level issues using Jenkin s   Course or internship experience related to the following areas could be required : Relational Databases, Linear Algebra &amp; Numerical Methods, Operating Systems (memory/resource management), Scheduling and Process Control, Hardware Virtualization   Cloud   Supporting overall architecture and design of our cloud storage infrastructure   Implementing and troubleshooting storage and data platform tools, automating storage infrastructure end-to-end   Course or internship experience related to the following areas could be required : Distributed Systems, Data Structures &amp; Algorithms, Virtualization, Automation/Scripting, Container &amp; Cluster Management, Debugging   Tools Infrastructure   Building industry leading technology by proving workflows and infrastructure, alon gside a team of experts in production software developm ent and chip design methodologies   Enabling success for content running on the chip from application tracing and analysis to modeling, diagnostics, performance tuning, and debugging   Course or internship experience related to the following areas and technologies could be required : Unix/Shell Scripting, Linux, Java, JavaScript (including Node, React, Vue) , C++, CUDA, OOP, Go, Python, Git, GitLab, Perforce, Kubernetes and M icroservices, Schedulers (LSF, SLURM), Containers (Docker), Configuration Automation (Ansible)   Data Science   S upporting cloud and on-premise infrastructure for backend analytics   Working on diverse data technologies i ncluding , Kafka, ELK, Cassandra, and Spark   Course or internship experience related to the following areas could be required : Data Science, Data Engineering, Open Source Data Science Tools, Open Source Libraries   What We Need To See   Currently pursuing a Bachelor's, Master's, or PhD degree within Computer Engineering, Electrical Engineering, Computer Science, or a related field   Depending on the internship role, prior experience or knowledge requirements could include the following programming skills and technologies: Java, JavaScript, (including Node, React, Vue), SQL, C++ , CUDA, OOP, Go, Python, Git, Perforce, Kubernetes and Microservices, Schedulers (LSF, SLURM), Containers (Docker), Configuration Automation (Ansible)</v>
+      </c>
+      <c r="C35" t="str">
+        <v>/Users/ashutoshkumbhar/Development/tailor/src/resources/NVIDIA/NVIDIA-ashutosh-kumbhar-cl.pdf</v>
+      </c>
+      <c r="D35" t="str">
+        <v>1738463365605</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F35"/>
   </ignoredErrors>
 </worksheet>
 </file>